--- a/data/data_2005.xlsx
+++ b/data/data_2005.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TakumaWatari/Dropbox/GitHub/steel-flows-sankeys/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220BC9D7-9030-5C43-AD37-ABAF499454EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346C043E-E4A8-7847-8F16-AA8E6EC03464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
+    <workbookView xWindow="-1620" yWindow="-18280" windowWidth="30240" windowHeight="17340" xr2:uid="{95929309-E14E-F341-94AB-0DA32D6E9E75}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="44" r:id="rId1"/>
